--- a/posesiones/1463366.xlsx
+++ b/posesiones/1463366.xlsx
@@ -1862,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>15</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>11</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>18</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>13</v>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>22</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>7</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>14</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>4</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>25</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>5</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R31">
         <v>21</v>
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>22</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>8</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R41">
         <v>26</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R43">
         <v>6</v>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44">
         <v>5</v>
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R45">
         <v>7</v>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>21</v>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>19</v>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R51">
         <v>7</v>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>21</v>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53">
         <v>16</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>12</v>
@@ -4709,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R60">
         <v>13</v>
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R61">
         <v>21</v>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R63">
         <v>7</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R65">
         <v>21</v>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R69">
         <v>21</v>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R71">
         <v>5</v>
@@ -5315,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R83">
         <v>25</v>
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R84">
         <v>7</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6044,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R88">
         <v>21</v>
@@ -6147,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R89">
         <v>13</v>
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R90">
         <v>12</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6350,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R93">
         <v>7</v>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R95">
         <v>6</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R108">
         <v>14</v>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R110">
         <v>21</v>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7470,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R116">
         <v>23</v>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R118">
         <v>6</v>
@@ -7626,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R119">
         <v>27</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7870,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R124">
         <v>3</v>
@@ -7923,7 +7923,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R125">
         <v>1</v>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8061,10 +8061,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8199,10 +8199,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8393,7 +8393,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R135">
         <v>14</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R137">
         <v>25</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R140">
         <v>13</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8737,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R142">
         <v>16</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8840,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R144">
         <v>8</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9037,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R148">
         <v>11</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9137,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R150">
         <v>5</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9278,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9375,7 +9375,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R155">
         <v>13</v>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9475,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R157">
         <v>10</v>
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R158">
         <v>24</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9675,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R161">
         <v>15</v>
@@ -9728,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R162">
         <v>13</v>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9975,7 +9975,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R167">
         <v>32</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10119,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R171">
         <v>3</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10272,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R173">
         <v>21</v>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R175">
         <v>12</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10478,7 +10478,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R177">
         <v>12</v>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R179">
         <v>16</v>
@@ -10631,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10728,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10966,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R187">
         <v>6</v>
@@ -11016,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11160,7 +11160,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R191">
         <v>9</v>
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R192">
         <v>17</v>
@@ -11263,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11313,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R194">
         <v>15</v>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11413,7 +11413,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R196">
         <v>24</v>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11516,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R198">
         <v>9</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11610,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11657,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11704,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R203">
         <v>30</v>
@@ -11804,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R205">
         <v>12</v>
@@ -11907,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11957,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R207">
         <v>15</v>
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12057,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12104,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R212">
         <v>13</v>
@@ -12254,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12301,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12351,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R215">
         <v>0</v>
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12448,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12495,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R218">
         <v>15</v>
@@ -12548,7 +12548,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R219">
         <v>12</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12745,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R223">
         <v>9</v>
@@ -12798,7 +12798,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12845,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12942,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R229">
         <v>18</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13139,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R231">
         <v>18</v>
@@ -13192,7 +13192,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R232">
         <v>10</v>
@@ -13242,7 +13242,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13336,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13389,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R236">
         <v>16</v>
@@ -13439,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13580,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13630,7 +13630,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13680,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R242">
         <v>18</v>
@@ -13733,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R243">
         <v>23</v>
@@ -13783,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13830,7 +13830,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13924,7 +13924,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14018,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14065,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14112,7 +14112,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14159,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14206,7 +14206,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14253,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14303,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14444,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14494,7 +14494,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R259">
         <v>40</v>
@@ -14544,7 +14544,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14594,7 +14594,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R261">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14738,7 +14738,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14832,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14970,7 +14970,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15017,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15111,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15158,7 +15158,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15252,7 +15252,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15302,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R276">
         <v>5</v>
@@ -15352,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15446,7 +15446,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15493,7 +15493,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R281">
         <v>0</v>
@@ -15587,10 +15587,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q282">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15684,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15731,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15778,7 +15778,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15819,10 +15819,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q287">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15872,7 +15872,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R288">
         <v>19</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15969,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16019,7 +16019,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16069,7 +16069,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R292">
         <v>18</v>
@@ -16119,7 +16119,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16219,7 +16219,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R295">
         <v>21</v>
@@ -16272,7 +16272,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R296">
         <v>18</v>
@@ -16325,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16375,7 +16375,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R298">
         <v>9</v>
@@ -16425,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16475,7 +16475,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R300">
         <v>22</v>
@@ -16528,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R302">
         <v>12</v>
@@ -16631,7 +16631,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16678,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16775,7 +16775,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R306">
         <v>18</v>
@@ -16828,7 +16828,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R307">
         <v>13</v>
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16928,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16978,7 +16978,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17028,7 +17028,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R311">
         <v>14</v>
@@ -17078,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17128,7 +17128,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17175,7 +17175,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17222,7 +17222,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17316,7 +17316,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17363,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17413,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R319">
         <v>21</v>
@@ -17463,7 +17463,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17513,7 +17513,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R321">
         <v>24</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17613,7 +17613,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17663,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17713,7 +17713,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R325">
         <v>18</v>
@@ -17763,7 +17763,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17907,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R329">
         <v>11</v>
@@ -17957,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18004,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18054,7 +18054,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18101,7 +18101,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18148,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18195,7 +18195,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18245,7 +18245,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R336">
         <v>8</v>
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18342,7 +18342,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R338">
         <v>17</v>
@@ -18395,7 +18395,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R339">
         <v>22</v>
@@ -18448,7 +18448,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R340">
         <v>16</v>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18551,7 +18551,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R342">
         <v>17</v>
@@ -18601,7 +18601,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18648,7 +18648,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18695,7 +18695,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18742,7 +18742,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18789,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18836,7 +18836,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18883,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18933,7 +18933,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R350">
         <v>1</v>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19083,7 +19083,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R353">
         <v>0</v>
@@ -19133,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19183,7 +19183,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R355">
         <v>14</v>
@@ -19236,7 +19236,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19283,7 +19283,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19333,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19383,7 +19383,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R359">
         <v>30</v>
@@ -19433,7 +19433,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19574,7 +19574,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19624,7 +19624,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R364">
         <v>39</v>
@@ -19674,7 +19674,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19724,7 +19724,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R366">
         <v>21</v>
@@ -19774,7 +19774,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19824,7 +19824,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R368">
         <v>18</v>
@@ -19871,7 +19871,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19921,7 +19921,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R370">
         <v>53</v>
@@ -19974,7 +19974,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20024,7 +20024,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R372">
         <v>5</v>
@@ -20077,7 +20077,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R373">
         <v>14</v>
@@ -20127,7 +20127,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20174,7 +20174,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20221,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20268,7 +20268,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20315,7 +20315,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20365,7 +20365,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R379">
         <v>6</v>
@@ -20418,7 +20418,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R380">
         <v>17</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20518,7 +20518,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20571,7 +20571,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R383">
         <v>6</v>
@@ -20621,7 +20621,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20668,7 +20668,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20718,7 +20718,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20768,7 +20768,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R387">
         <v>21</v>
@@ -20818,7 +20818,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20868,7 +20868,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R389">
         <v>5</v>
@@ -20918,7 +20918,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20965,7 +20965,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21012,7 +21012,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21059,7 +21059,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21106,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21153,7 +21153,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21200,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21288,10 +21288,10 @@
         <v>1</v>
       </c>
       <c r="P398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q398">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21332,10 +21332,10 @@
         <v>1</v>
       </c>
       <c r="P399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q399">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21385,7 +21385,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R400">
         <v>15</v>
@@ -21438,7 +21438,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21488,7 +21488,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R402">
         <v>23</v>
@@ -21541,7 +21541,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R403">
         <v>18</v>
@@ -21591,7 +21591,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R405">
         <v>16</v>
@@ -21691,7 +21691,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21741,7 +21741,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R407">
         <v>16</v>
@@ -21794,7 +21794,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21844,7 +21844,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R409">
         <v>11</v>
@@ -21891,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21938,7 +21938,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21985,7 +21985,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22032,7 +22032,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22082,7 +22082,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R414">
         <v>13</v>
@@ -22135,7 +22135,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R415">
         <v>9</v>
@@ -22185,7 +22185,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22232,7 +22232,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22282,7 +22282,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R418">
         <v>17</v>
@@ -22332,7 +22332,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22382,7 +22382,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R420">
         <v>20</v>
@@ -22435,7 +22435,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22485,7 +22485,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R422">
         <v>5</v>
@@ -22535,7 +22535,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22579,7 +22579,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22767,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22814,7 +22814,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22861,7 +22861,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22911,7 +22911,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R431">
         <v>23</v>
@@ -22964,7 +22964,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R432">
         <v>17</v>
@@ -23017,7 +23017,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23067,7 +23067,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R434">
         <v>24</v>
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23164,7 +23164,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23211,7 +23211,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23355,7 +23355,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R440">
         <v>25</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23452,7 +23452,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23499,7 +23499,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23549,7 +23549,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R444">
         <v>0</v>
@@ -23602,7 +23602,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23652,7 +23652,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R446">
         <v>17</v>
@@ -23705,7 +23705,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23799,7 +23799,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23849,7 +23849,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R450">
         <v>22</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23952,7 +23952,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R452">
         <v>21</v>
@@ -24002,7 +24002,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24052,7 +24052,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R454">
         <v>22</v>
@@ -24102,7 +24102,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24149,7 +24149,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24199,7 +24199,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R457">
         <v>0</v>
@@ -24252,7 +24252,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R458">
         <v>23</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24355,7 +24355,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R460">
         <v>12</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24546,7 +24546,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24596,7 +24596,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R465">
         <v>21</v>
@@ -24649,7 +24649,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R466">
         <v>17</v>
@@ -24702,7 +24702,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24802,7 +24802,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R469">
         <v>17</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24896,7 +24896,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24943,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24990,7 +24990,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R474">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25184,7 +25184,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25231,7 +25231,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25328,7 +25328,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R480">
         <v>14</v>
@@ -25381,7 +25381,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R481">
         <v>26</v>
@@ -25434,7 +25434,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25531,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25581,7 +25581,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R485">
         <v>6</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25678,7 +25678,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R487">
         <v>11</v>
@@ -25731,7 +25731,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R488">
         <v>16</v>
@@ -25781,7 +25781,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25878,7 +25878,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R491">
         <v>17</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25978,7 +25978,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R493">
         <v>19</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26081,7 +26081,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R495">
         <v>24</v>
@@ -26134,7 +26134,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26184,7 +26184,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R497">
         <v>9</v>
@@ -26237,7 +26237,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R498">
         <v>23</v>
@@ -26287,7 +26287,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26337,7 +26337,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R500">
         <v>3</v>
@@ -26390,7 +26390,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R501">
         <v>0</v>
@@ -26443,7 +26443,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R502">
         <v>5</v>
@@ -26487,10 +26487,10 @@
         <v>1</v>
       </c>
       <c r="P503" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q503">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26531,7 +26531,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
